--- a/site list.xlsx
+++ b/site list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kradk\Documents\NUS\project\GDPR_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kradk\Documents\NUS\project\NUS_MComp_CapStone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{467A1A69-8B18-46E4-A4C3-ECDA7AAFDC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92643894-179D-4BCA-BD9B-3023DE32397F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53821686-C298-49C3-B6C7-1A800C5DD5C6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{53821686-C298-49C3-B6C7-1A800C5DD5C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
   <si>
     <t>site</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>hardwarezone.com.sg</t>
+  </si>
+  <si>
+    <t>stackoverflow</t>
+  </si>
+  <si>
+    <t>leica</t>
   </si>
 </sst>
 </file>
@@ -480,21 +486,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C341B0C6-7A00-4885-B20E-10EAB2359D9D}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.53125" customWidth="1"/>
+    <col min="5" max="5" width="13.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -531,7 +537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -548,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -565,7 +571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -582,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -599,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -616,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -633,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -650,7 +656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -667,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -684,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -701,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -718,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -735,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -752,7 +758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -767,6 +773,34 @@
       </c>
       <c r="E16" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
